--- a/figures_and_tables/upsetplot_main.xlsx
+++ b/figures_and_tables/upsetplot_main.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,12 +469,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DTI Tracts, Structural MRI, rs-fMRI Network, Schizophrenia</t>
+          <t>DTI Tracts, Structural MRI, rs-fMRI Network</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Net100_Pair18_48, Net100_Pair24_44, Net_Edge_ICA6, surface area: Occipital.lateraloccipital, DTI PC4: PCR, DTI PC2: SCC, Net100_Pair10_48, DTI PC4: RLIC, Net100_Pair5_21, DTI AD: IFO, SCZ_PGC3_2020, Net100_Pair9_48, Net100_Pair19_39, Net_Edge_ICA3, DTI PC1: IFO, Net100_Pair10_36, DTI FA: IFO, DTI PC3: SFO, DTI MO: IFO, volume: Occipital.lingual, DTI PC2: BCC</t>
+          <t>Net100_Pair18_48, DTI PC2: BCC, DTI MO: IFO, volume: Occipital.lingual, Net100_Pair5_21, Net100_Pair10_36, DTI AD: IFO, Net100_Pair24_44, DTI PC4: PCR, Net100_Pair10_48, DTI FA: IFO, DTI PC2: SCC, Net100_Pair19_39, DTI PC4: RLIC, DTI PC3: SFO, surface area: Occipital.lateraloccipital, Net100_Pair9_48, DTI PC1: IFO, Net_Edge_ICA3, Net_Edge_ICA6</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DTI PC1: CGC, DTI FA: CGC, DTI MO: CGC, cortical thickness (adjusted): Occipital.pericalcarine, Net100_Pair10_36</t>
+          <t>DTI MO: CGC, DTI FA: CGC, DTI PC1: CGC, cortical thickness (adjusted): Occipital.pericalcarine, Net100_Pair10_36</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cortical thickness (adjusted): Frontal.caudalmiddlefrontal, DTI MD: SS, DTI RD: SS, DTI MD: SLF, volume: Temporal.bankssts, DTI MD: RLIC, Net100_Node2, DTI RD: RLIC, surface area: Temporal.bankssts, Net25_Node5, Net25_Node7, DTI MD: Average</t>
+          <t>cortical thickness (adjusted): Frontal.caudalmiddlefrontal, Net100_Node2, Net25_Node7, DTI MD: RLIC, DTI MD: Average, Net25_Node5, DTI RD: SS, surface area: Temporal.bankssts, DTI MD: SS, DTI RD: RLIC, DTI MD: SLF, volume: Temporal.bankssts</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DTI PC1: FXST, DTI MO: SCC, Net100_Pair24_44, cortical thickness (adjusted): Cortex.cortex, volume: Parietal.postcentral, DTI PC2: CGC, DTI MO: EC, DTI MO: GCC, Net_Edge_ICA6, DTI RD: FXST, DTI PC2: EC, DTI PC3: SCC, DTI PC4: PCR, DTI RD: IFO, volume: Cingulate.caudalanteriorcingulate, DTI PC2: SCC, DTI FA: FXST, DTI PC4: RLIC, DTI PC4: SLF, DTI PC1: ALIC, DTI AD: IFO, volume: Temporal.transversetemporal, Net100_Pair5_29, Net100_Pair9_48, DTI PC5: EC, DTI PC3: PCR, Net_Edge_ICA3, DTI PC1: IFO, DTI FA: IFO, Net100_Pair11_26, volume: Temporal.inferiortemporal, DTI PC4: SCR, DTI MO: IFO, DTI PC2: BCC, DTI PC2: SLF, DTI PC3: EC, DTI PC5: IFO</t>
+          <t>Net100_Pair11_26, DTI PC2: BCC, DTI MO: IFO, Net100_Pair5_29, DTI MO: GCC, volume: Temporal.transversetemporal, DTI FA: FXST, DTI MO: SCC, DTI RD: FXST, DTI PC5: IFO, DTI RD: IFO, DTI PC3: EC, DTI AD: IFO, Net100_Pair24_44, DTI PC4: SLF, DTI PC4: PCR, DTI PC2: EC, volume: Cingulate.caudalanteriorcingulate, DTI PC2: SLF, DTI FA: IFO, DTI PC2: SCC, volume: Parietal.postcentral, volume: Temporal.inferiortemporal, DTI PC1: FXST, DTI PC4: RLIC, DTI PC5: EC, DTI PC2: CGC, Net100_Pair9_48, DTI MO: EC, DTI PC1: ALIC, DTI PC4: SCR, DTI PC1: IFO, DTI PC3: PCR, Net_Edge_ICA3, cortical thickness (adjusted): Cortex.cortex, DTI PC3: SCC, Net_Edge_ICA6</t>
         </is>
       </c>
     </row>
@@ -562,283 +562,283 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>volume: Cingulate.rostralanteriorcingulate, DTI MD: CGH, Net100_Pair23_35</t>
+          <t>DTI MD: CGH, Net100_Pair23_35, volume: Cingulate.rostralanteriorcingulate</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DroNc_Human_Hippocampus</t>
+          <t>Allen_human_LGN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>exCA1</t>
+          <t>Non-Neuronal.Oligo_MAG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DTI Tracts, Schizophrenia</t>
+          <t>DTI Tracts, Structural MRI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020, DTI PC1: CGC, DTI FA: CGC, DTI MO: CGC</t>
+          <t>DTI MD: PTR, DTI MO: ALIC, DTI RD: UNC, DTI MD: SCC, cortical thickness (adjusted): Cingulate.posteriorcingulate, DTI PC1: PLIC, DTI AD: PLIC, DTI MD: SS, DTI FA: PTR, DTI PC1: PTR, DTI AD: SCC, DTI FA: PLIC, cortical thickness (adjusted): Frontal.paracentral, DTI RD: PTR, DTI MO: PLIC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PsychENCODE_DER-22</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ex3e</t>
+          <t>NSC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DTI Tracts, Schizophrenia</t>
+          <t>DTI Tracts, Structural MRI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020, DTI PC1: CGC, DTI FA: CGC</t>
+          <t>volume: Temporal.temporalpole, DTI MO: CGH</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HBGLU5</t>
+          <t>ODC1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DTI Tracts, Schizophrenia</t>
+          <t>DTI Tracts, Structural MRI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020, DTI PC1: EC, DTI FA: EC</t>
+          <t>DTI MD: PTR, DTI PC1: BCC, DTI MD: SCC, DTI MD: CGH, DTI MD: Average, DTI MD: RLIC, DTI AD: Average, DTI MD: SS, DTI FA: PTR, DTI PC1: PTR, DTI AD: SCC, cortical thickness (adjusted): Occipital.cuneus, cortical thickness (adjusted): Parietal.precuneus, DTI AD: SS, surface area: Frontal.lateralorbitofrontal, DTI RD: PTR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>GSE67835_Human_Cortex</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brain_Non-Myeloid.oligodendrocyte</t>
+          <t>fetal_replicating</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DTI Tracts, Schizophrenia</t>
+          <t>DTI Tracts, Structural MRI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DTI MO: PLIC, SCZ_PGC3_2020, DTI AD: BCC, DTI AD: CGC</t>
+          <t>surface area: Parietal.supramarginal, DTI PC2: CGC, surface area: Frontal.medialorbitofrontal</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marrow.Slamf1-positive_multipotent_progenitor_cell</t>
+          <t>VLMC2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DTI Tracts, Schizophrenia</t>
+          <t>DTI Tracts, Structural MRI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020, DTI FA: ACR</t>
+          <t>DTI PC4: ACR, surface area: Frontal.medialorbitofrontal, DTI AD: UNC</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>Descartes_Human_Cerebrum</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marrow.common_lymphoid_progenitor</t>
+          <t>Cerebrum-Astrocytes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DTI Tracts, Schizophrenia</t>
+          <t>DTI Tracts, rs-fMRI Network</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DTI MD: FXST, DTI RD: PTR, DTI PC1: ACR, DTI RD: ACR, DTI PC4: GCC, SCZ_PGC3_2020, DTI FA: ACR, DTI PC1: PTR, DTI RD: CGC, DTI FA: Average, DTI MD: SCR, DTI RD: Average, DTI FA: PTR, DTI MD: ACR</t>
+          <t>DTI PC4: SCC, Net100_Pair10_33</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>Descartes_Human_Cerebrum</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pancreas.type_B_pancreatic_cell</t>
+          <t>Cerebrum-Vascular_endothelial_cells</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DTI Tracts, Schizophrenia</t>
+          <t>DTI Tracts, rs-fMRI Network</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020, DTI PC1: ALIC, DTI FA: ALIC</t>
+          <t>DTI RD: PCR, DTI RD: RLIC, DTI AD: SLF, DTI MD: IFO, Net100_Node36, DTI RD: SS, DTI MD: SS, Net100_Node14, Net100_Node40, Net25_Node8, DTI MD: RLIC, Net100_Node26, DTI PC1: PCR, Net100_Node27, Net25_Node6, Net25_Node2, Net100_Node21, Net25_Node3, Net25_Node7, Net25_Node20, Net100_Node45, DTI MD: PCR, DTI AD: PCR, DTI FA: RLIC, Net100_Node19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Allen_human_LGN</t>
+          <t>PsychENCODE_DER-22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Non-Neuronal.Oligo_MAG</t>
+          <t>Oligo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DTI Tracts, Structural MRI</t>
+          <t>DTI Tracts, rs-fMRI Network</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DTI RD: PTR, DTI RD: UNC, DTI MD: SS, DTI PC1: PTR, DTI MO: PLIC, DTI FA: PLIC, DTI AD: PLIC, DTI MD: SCC, cortical thickness (adjusted): Frontal.paracentral, DTI PC1: PLIC, DTI MD: PTR, DTI FA: PTR, cortical thickness (adjusted): Cingulate.posteriorcingulate, DTI MO: ALIC, DTI AD: SCC</t>
+          <t>DTI MD: PTR, DTI MD: CGH, DTI MD: SS, DTI FA: PTR, DTI PC1: PTR, DTI AD: SCC, DTI RD: PTR, Net100_Pair23_35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DroNc_Human_Hippocampus</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>VECA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DTI Tracts, Structural MRI</t>
+          <t>DTI Tracts, rs-fMRI Network</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>volume: Temporal.temporalpole, DTI MO: CGH</t>
+          <t>Net100_Node21, DTI AD: UNC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DroNc_Human_Hippocampus</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ODC1</t>
+          <t>Brain_Non-Myeloid.endothelial_cell</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DTI Tracts, Structural MRI</t>
+          <t>DTI Tracts, rs-fMRI Network</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DTI MD: CGH, DTI AD: SS, DTI RD: PTR, DTI MD: SS, DTI MD: PTR, DTI MD: RLIC, DTI PC1: PTR, DTI PC1: BCC, DTI MD: SCC, DTI AD: Average, surface area: Frontal.lateralorbitofrontal, cortical thickness (adjusted): Occipital.cuneus, cortical thickness (adjusted): Parietal.precuneus, DTI AD: SCC, DTI FA: PTR, DTI MD: Average</t>
+          <t>Net100_Node44, DTI MD: SS, Net100_Node28, Net25_Node6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSE67835_Human_Cortex</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fetal_replicating</t>
+          <t>Fat.mesenchymal_stem_cell_of_adipose</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DTI Tracts, Structural MRI</t>
+          <t>DTI Tracts, rs-fMRI Network</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>surface area: Frontal.medialorbitofrontal, DTI PC2: CGC, surface area: Parietal.supramarginal</t>
+          <t>DTI PC1: PCR, Net100_Pair21_44</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VLMC2</t>
+          <t>Marrow.granulocytopoietic_cell</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DTI Tracts, Structural MRI</t>
+          <t>DTI Tracts, rs-fMRI Network</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>surface area: Frontal.medialorbitofrontal, DTI PC4: ACR, DTI AD: UNC</t>
+          <t>Net100_Pair37_48, DTI FA: PTR, DTI PC1: PTR</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Descartes_Human_Cerebrum</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cerebrum-Astrocytes</t>
+          <t>Marrow.late_pro-B_cell</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -848,161 +848,161 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DTI PC4: SCC, Net100_Pair10_33</t>
+          <t>DTI RD: ACR, DTI MD: ACR, DTI RD: Average, DTI FA: Average, DTI PC1: RLIC, Net_Edge_ICA3, DTI FA: PTR, DTI PC1: PTR, DTI FA: RLIC, DTI RD: RLIC, DTI RD: PTR, DTI RD: SCR, DTI MD: SCR, Net100_Pair10_36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Descartes_Human_Cerebrum</t>
+          <t>Allen_human_LGN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cerebrum-Vascular_endothelial_cells</t>
+          <t>Non-Neuronal.Astro_LGR6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DTI Tracts, rs-fMRI Network</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DTI MD: IFO, DTI PC1: PCR, DTI RD: SS, Net100_Node45, Net100_Node19, Net100_Node40, DTI RD: RLIC, Net25_Node20, DTI AD: PCR, DTI FA: RLIC, Net100_Node36, Net100_Node27, Net25_Node7, Net25_Node3, Net25_Node6, DTI MD: SS, DTI MD: RLIC, DTI AD: SLF, Net100_Node14, Net100_Node26, Net100_Node21, Net25_Node2, DTI RD: PCR, Net25_Node8, DTI MD: PCR</t>
+          <t>DTI MD: PTR, DTI MD: UNC, DTI AD: PTR, DTI AD: UNC, DTI MD: SS, DTI AD: PCR, DTI AD: SS, DTI RD: PTR</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PsychENCODE_DER-22</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Oligo</t>
+          <t>GABAergic.Inh_L5-6_SST_KLHDC8A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DTI Tracts, rs-fMRI Network</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DTI MD: CGH, DTI RD: PTR, DTI MD: SS, DTI PC1: PTR, Net100_Pair23_35, DTI MD: PTR, DTI FA: PTR, DTI AD: SCC</t>
+          <t>DTI PC5: FXST</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VECA</t>
+          <t>Non-neuronal.Astro_L1-2_FGFR3_GFAP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DTI Tracts, rs-fMRI Network</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Net100_Node21, DTI AD: UNC</t>
+          <t>DTI PC5: ACR, DTI MD: UNC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Brain_Non-Myeloid.endothelial_cell</t>
+          <t>Non-neuronal.Astro_L1-6_FGFR3_SLC14A1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DTI Tracts, rs-fMRI Network</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Net100_Node44, Net100_Node28, Net25_Node6, DTI MD: SS</t>
+          <t>DTI MD: UNC</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fat.mesenchymal_stem_cell_of_adipose</t>
+          <t>Non-neuronal.Oligo_L1-6_OPALIN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DTI Tracts, rs-fMRI Network</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Net100_Pair21_44, DTI PC1: PCR</t>
+          <t>DTI MD: SS, DTI FA: PTR, DTI PC1: PTR, DTI AD: SCC, DTI RD: PTR</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>Descartes_Human_Cerebellum</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Marrow.granulocytopoietic_cell</t>
+          <t>Cerebellum-Astrocytes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DTI Tracts, rs-fMRI Network</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Net100_Pair37_48, DTI FA: PTR, DTI PC1: PTR</t>
+          <t>DTI PC2: CST, DTI PC4: PCR, DTI PC5: SCC</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Marrow.late_pro-B_cell</t>
+          <t>ASC2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DTI Tracts, rs-fMRI Network</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DTI RD: PTR, DTI RD: ACR, DTI PC1: RLIC, DTI PC1: PTR, DTI FA: RLIC, DTI RD: RLIC, Net_Edge_ICA3, Net100_Pair10_36, DTI FA: Average, DTI MD: SCR, DTI RD: SCR, DTI RD: Average, DTI FA: PTR, DTI MD: ACR</t>
+          <t>DTI MD: PTR, DTI PC4: SCC, DTI AD: PTR</t>
         </is>
       </c>
     </row>
@@ -1014,117 +1014,117 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>exPFC2</t>
+          <t>ODC2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Structural MRI, Schizophrenia</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020, volume: Parietal.superiorparietal</t>
+          <t>DTI MD: PTR, DTI MD: SS, DTI FA: PTR, DTI PC1: PTR, DTI AD: SCC, DTI FA: PLIC, DTI MO: SFO, DTI RD: PTR, DTI MO: PLIC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PsychENCODE_DER-22</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ex9</t>
+          <t>OPC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Structural MRI, Schizophrenia</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020, cortical thickness (adjusted): Temporal.superiortemporal</t>
+          <t>DTI PC4: FXST</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Descartes_Human_Cerebrum</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cerebrum-Inhibitory_neurons</t>
+          <t>exCA1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>rs-fMRI Network, Schizophrenia</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Net25_Pair10_15, SCZ_PGC3_2020, Net100_Pair20_32</t>
+          <t>DTI FA: CGC, DTI PC1: CGC, DTI MO: CGC</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DroNc_Human_Hippocampus</t>
+          <t>GSE101601_Temporal_Cortex</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>exPFC1</t>
+          <t>gaba_fbxl7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>rs-fMRI Network, Schizophrenia</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020, Net100_Pair8_32</t>
+          <t>DTI RD: SFO, DTI PC1: SCC, DTI FA: SCC</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>GSE101601_Temporal_Cortex</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DEGLU4</t>
+          <t>gaba_reln</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>rs-fMRI Network, Schizophrenia</t>
+          <t>DTI Tracts</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020, Net100_Pair25_46</t>
+          <t>DTI AD: SS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Allen_human_LGN</t>
+          <t>PsychENCODE_DER-22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Non-Neuronal.Astro_LGR6</t>
+          <t>Astro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1134,19 +1134,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DTI AD: PTR, DTI AD: SS, DTI RD: PTR, DTI MD: SS, DTI AD: PCR, DTI MD: UNC, DTI AD: UNC, DTI MD: PTR</t>
+          <t>DTI MD: PTR, DTI MD: UNC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Allen_human_MTG</t>
+          <t>PsychENCODE_DER-22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GABAergic.Inh_L5-6_SST_KLHDC8A</t>
+          <t>Ex3e</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1156,19 +1156,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DTI PC5: FXST</t>
+          <t>DTI FA: CGC, DTI PC1: CGC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Allen_human_MTG</t>
+          <t>PsychENCODE_DER-22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Non-neuronal.Astro_L1-2_FGFR3_GFAP</t>
+          <t>Per</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DTI PC5: ACR, DTI MD: UNC</t>
+          <t>DTI MD: SS, DTI AD: SLF</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Allen_human_MTG</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Non-neuronal.Astro_L1-6_FGFR3_SLC14A1</t>
+          <t>HBGLU5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1200,19 +1200,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DTI MD: UNC</t>
+          <t>DTI PC1: EC, DTI FA: EC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Allen_human_MTG</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Non-neuronal.Oligo_L1-6_OPALIN</t>
+          <t>MFOL1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1222,19 +1222,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DTI RD: PTR, DTI MD: SS, DTI PC1: PTR, DTI FA: PTR, DTI AD: SCC</t>
+          <t>DTI MD: PTR, DTI FA: GCC, DTI MD: PCR, DTI MD: SS, DTI RD: PCR, DTI PC1: PTR, DTI PC1: UNC, DTI RD: SCC, DTI RD: PTR, DTI PC1: GCC</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Descartes_Human_Cerebellum</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cerebellum-Astrocytes</t>
+          <t>MFOL2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1244,19 +1244,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DTI PC5: SCC, DTI PC2: CST, DTI PC4: PCR</t>
+          <t>DTI MD: PTR, DTI AD: RLIC, DTI AD: CGH, DTI RD: SS, DTI MD: SS, DTI FA: PTR, DTI PC1: PTR, DTI RD: PCR, DTI AD: SS, DTI RD: PTR</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DroNc_Human_Hippocampus</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ASC2</t>
+          <t>MOL1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1266,19 +1266,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DTI MD: PTR, DTI AD: PTR, DTI PC4: SCC</t>
+          <t>DTI AD: SS, DTI MD: PTR</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DroNc_Human_Hippocampus</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ODC2</t>
+          <t>MOL2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1288,19 +1288,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DTI MO: SFO, DTI RD: PTR, DTI MD: SS, DTI PC1: PTR, DTI MO: PLIC, DTI FA: PLIC, DTI MD: PTR, DTI FA: PTR, DTI AD: SCC</t>
+          <t>DTI MD: PTR, DTI PC1: UNC</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DroNc_Human_Hippocampus</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>OPC</t>
+          <t>NFOL2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1310,19 +1310,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DTI PC4: FXST</t>
+          <t>DTI PC1: PTR</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GSE101601_Temporal_Cortex</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>gaba_fbxl7</t>
+          <t>VLMC1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1332,19 +1332,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DTI RD: SFO, DTI PC1: SCC, DTI FA: SCC</t>
+          <t>DTI AD: UNC</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GSE101601_Temporal_Cortex</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>gaba_reln</t>
+          <t>Brain_Non-Myeloid.oligodendrocyte</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1354,19 +1354,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DTI AD: SS</t>
+          <t>DTI MO: PLIC, DTI AD: CGC, DTI AD: BCC</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PsychENCODE_DER-22</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Astro</t>
+          <t>Limb_Muscle.endothelial_cell</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1376,19 +1376,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DTI MD: PTR, DTI MD: UNC</t>
+          <t>DTI MD: IFO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PsychENCODE_DER-22</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Per</t>
+          <t>Limb_Muscle.skeletal_muscle_satellite_cell</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1398,19 +1398,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DTI AD: SLF, DTI MD: SS</t>
+          <t>DTI PC4: PCR</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MFOL1</t>
+          <t>Marrow.Slamf1-positive_multipotent_progenitor_cell</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1420,19 +1420,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DTI RD: PTR, DTI MD: SS, DTI FA: GCC, DTI RD: SCC, DTI PC1: PTR, DTI PC1: GCC, DTI RD: PCR, DTI PC1: UNC, DTI MD: PTR, DTI MD: PCR</t>
+          <t>DTI FA: ACR</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MFOL2</t>
+          <t>Marrow.basophil</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1442,19 +1442,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DTI AD: CGH, DTI AD: SS, DTI RD: PTR, DTI MD: SS, DTI RD: SS, DTI PC1: PTR, DTI RD: PCR, DTI AD: RLIC, DTI MD: PTR, DTI FA: PTR</t>
+          <t>DTI PC4: PTR</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MOL1</t>
+          <t>Marrow.common_lymphoid_progenitor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1464,19 +1464,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DTI MD: PTR, DTI AD: SS</t>
+          <t>DTI RD: ACR, DTI MD: ACR, DTI RD: Average, DTI MD: FXST, DTI FA: Average, DTI RD: CGC, DTI FA: PTR, DTI PC1: PTR, DTI FA: ACR, DTI RD: PTR, DTI PC4: GCC, DTI MD: SCR, DTI PC1: ACR</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MOL2</t>
+          <t>Marrow.immature_B_cell</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DTI MD: PTR, DTI PC1: UNC</t>
+          <t>DTI RD: ACR, DTI RD: Average, DTI MD: FXST</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NFOL2</t>
+          <t>Pancreas.type_B_pancreatic_cell</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1508,19 +1508,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DTI PC1: PTR</t>
+          <t>DTI PC1: ALIC, DTI FA: ALIC</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VLMC1</t>
+          <t>Trachea.endothelial_cell</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1530,535 +1530,535 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DTI AD: UNC</t>
+          <t>DTI MD: IFO</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Limb_Muscle.endothelial_cell</t>
+          <t>GABAergic.Inh_L5-6_SST_TH</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DTI Tracts</t>
+          <t>Structural MRI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DTI MD: IFO</t>
+          <t>surface area: Frontal.medialorbitofrontal</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>Descartes_Human_Cerebellum</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Limb_Muscle.skeletal_muscle_satellite_cell</t>
+          <t>Cerebellum-Unipolar_brush_cells</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DTI Tracts</t>
+          <t>Structural MRI</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DTI PC4: PCR</t>
+          <t>cortical thickness (adjusted): Frontal.superiorfrontal</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>Descartes_Human_Cerebrum</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Marrow.basophil</t>
+          <t>Cerebrum-Megakaryocytes</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DTI Tracts</t>
+          <t>Structural MRI</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DTI PC4: PTR</t>
+          <t>cortical thickness (adjusted): Parietal.supramarginal</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Marrow.immature_B_cell</t>
+          <t>exPFC2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DTI Tracts</t>
+          <t>Structural MRI</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DTI MD: FXST, DTI RD: Average, DTI RD: ACR</t>
+          <t>volume: Parietal.superiorparietal</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>tabula_muris</t>
+          <t>GSE101601_Temporal_Cortex</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Trachea.endothelial_cell</t>
+          <t>gaba_sst</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DTI Tracts</t>
+          <t>Structural MRI</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DTI MD: IFO</t>
+          <t>surface area: Frontal.frontalpole</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Allen_human_MTG</t>
+          <t>PsychENCODE_DER-22</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Glutamatergic.Exc_L2_LAMP5_LTK</t>
+          <t>Ex9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>Structural MRI</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>cortical thickness (adjusted): Temporal.superiortemporal</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Descartes_Human_Cerebrum</t>
+          <t>mousebrain</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cerebrum-Limbic_system_neurons</t>
+          <t>CBNBL2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>Structural MRI</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>volume: Parietal.postcentral, cortical thickness (adjusted): Parietal.postcentral</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DroNc_Human_Hippocampus</t>
+          <t>Allen_human_LGN</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GABA2</t>
+          <t>GABAergic.LGN_Inh_LAMP5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair28_48</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GSE67835_Human_Cortex</t>
+          <t>Allen_human_LGN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>neurons</t>
+          <t>Glutamatergic.LGN_Exc_BTNL9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair27_29</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PsychENCODE_DER-22</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ex1</t>
+          <t>GABAergic.Inh_L1-2_PAX6_CDH12</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair10_48</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DEGLU1</t>
+          <t>GABAergic.Inh_L1_SST_NMBR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair10_48</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DEGLU2</t>
+          <t>Glutamatergic.Exc_L5-6_THEMIS_CRABP1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair44_49</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DEGLU3</t>
+          <t>Glutamatergic.Exc_L5-6_THEMIS_DCSTAMP</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair44_49</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>Allen_human_MTG</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DEINH1</t>
+          <t>Glutamatergic.Exc_L5-6_THEMIS_FGF10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair44_49</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>Descartes_Human_Cerebellum</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DEINH3</t>
+          <t>Cerebellum-Inhibitory_interneurons</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair34_48, Net100_Pair5_25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>Descartes_Human_Cerebellum</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HBGLU6</t>
+          <t>Cerebellum-Vascular_endothelial_cells</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net25_Node4, Net25_Node2, Net25_Node8, Net100_Node4, Net25_Node5, Net25_Node10, Net100_Pair36_41, Net100_Node24, Net25_Node6, Net100_Node14</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>Descartes_Human_Cerebrum</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HBGLU7</t>
+          <t>Cerebrum-Inhibitory_neurons</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net25_Pair10_15, Net100_Pair20_32</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HBGLU9</t>
+          <t>END</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Node27</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HBINH5</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair30_32</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MEGLU6</t>
+          <t>exDG</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair2_15</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>DroNc_Human_Hippocampus</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MEINH10</t>
+          <t>exPFC1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair8_32</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>GSE101601_Temporal_Cortex</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MEINH2</t>
+          <t>htrc2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Node52</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>PsychENCODE_DER-22</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MSN1</t>
+          <t>Ex6a</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair5_21</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>PsychENCODE_DER-22</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MSN2</t>
+          <t>Ex8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair44_49</t>
         </is>
       </c>
     </row>
@@ -2070,17 +2070,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MSN3</t>
+          <t>DEGLU4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair25_46</t>
         </is>
       </c>
     </row>
@@ -2092,17 +2092,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MSN5</t>
+          <t>ENTG1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair24_36</t>
         </is>
       </c>
     </row>
@@ -2114,17 +2114,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TEGLU1</t>
+          <t>HBINH8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net_Edge_ICA1</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TEGLU10</t>
+          <t>SCINH10</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net_Edge_ICA1</t>
         </is>
       </c>
     </row>
@@ -2158,17 +2158,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TEGLU11</t>
+          <t>SCINH2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net_Edge_ICA1</t>
         </is>
       </c>
     </row>
@@ -2180,1379 +2180,103 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TEGLU12</t>
+          <t>SCINH5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Pair32_38</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TEGLU13</t>
+          <t>Brain_Non-Myeloid.brain_pericyte</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Node9, Net100_Node42, Net100_Node37, Net25_Node21, Net25_Node14, Net100_Node46, Net25_Node5, Net100_Node17, Net100_Node18, Net100_Node14, Net100_Node15, Net100_Node2, Net100_Node48, Net100_Node44, Net25_Node8, Net100_Node26, Net25_Node13, Net100_Node27, Net25_Node10, Net25_Node6, Net25_Node2, Net100_Node21, Net25_Node3, Net25_Node12, Net100_Node35, Net100_Node4, Net25_Node18, Net100_Node28, Net100_Node22, Net100_Node11, Net25_Node9, Net100_Node20, Net100_Node23</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TEGLU14</t>
+          <t>Heart.myofibroblast_cell</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net25_Node12, Net25_Node9, Net100_Node32, Net25_Node10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TEGLU15</t>
+          <t>Heart.smooth_muscle_cell</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SCZ_PGC3_2020</t>
+          <t>Net100_Node15, Net25_Node12, Net100_Node48, Net25_Node18, Net100_Node17, Net100_Node18, Net100_Node23</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>mousebrain</t>
+          <t>tabula_muris</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TEGLU17</t>
+          <t>Marrow.precursor_B_cell</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Schizophrenia</t>
+          <t>rs-fMRI Network</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>TEGLU18</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>TEGLU19</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>TEGLU2</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TEGLU20</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>TEGLU21</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>TEGLU22</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>TEGLU23</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>TEGLU24</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>TEGLU3</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>TEGLU4</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>TEGLU5</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>TEGLU7</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>TEGLU8</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>TEGLU9</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>TEINH1</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>TEINH11</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>TEINH12</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>TEINH13</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>TEINH14</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>TEINH15</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>TEINH16</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>TEINH17</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>TEINH18</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>TEINH19</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>TEINH20</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>tabula_muris</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Brain_Non-Myeloid.neuron</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>tabula_muris</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Brain_Non-Myeloid.oligodendrocyte_precursor_cell</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>tabula_muris</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Marrow.granulocyte_monocyte_progenitor_cell</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>tabula_muris</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Pancreas.pancreatic_A_cell</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Schizophrenia</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>SCZ_PGC3_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Allen_human_MTG</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>GABAergic.Inh_L5-6_SST_TH</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Structural MRI</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>surface area: Frontal.medialorbitofrontal</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Descartes_Human_Cerebellum</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Cerebellum-Unipolar_brush_cells</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Structural MRI</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>cortical thickness (adjusted): Frontal.superiorfrontal</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Descartes_Human_Cerebrum</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Cerebrum-Megakaryocytes</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Structural MRI</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>cortical thickness (adjusted): Parietal.supramarginal</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>GSE101601_Temporal_Cortex</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>gaba_sst</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Structural MRI</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>surface area: Frontal.frontalpole</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>CBNBL2</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Structural MRI</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>cortical thickness (adjusted): Parietal.postcentral, volume: Parietal.postcentral</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Allen_human_LGN</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>GABAergic.LGN_Inh_LAMP5</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Net100_Pair28_48</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Allen_human_LGN</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Glutamatergic.LGN_Exc_BTNL9</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Net100_Pair27_29</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Allen_human_MTG</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>GABAergic.Inh_L1-2_PAX6_CDH12</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Net100_Pair10_48</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Allen_human_MTG</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>GABAergic.Inh_L1_SST_NMBR</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Net100_Pair10_48</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Allen_human_MTG</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Glutamatergic.Exc_L5-6_THEMIS_CRABP1</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Net100_Pair44_49</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Allen_human_MTG</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Glutamatergic.Exc_L5-6_THEMIS_DCSTAMP</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Net100_Pair44_49</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Allen_human_MTG</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Glutamatergic.Exc_L5-6_THEMIS_FGF10</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Net100_Pair44_49</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Descartes_Human_Cerebellum</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Cerebellum-Inhibitory_interneurons</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Net100_Pair5_25, Net100_Pair34_48</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Descartes_Human_Cerebellum</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Cerebellum-Vascular_endothelial_cells</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Net25_Node10, Net25_Node6, Net25_Node8, Net100_Node4, Net25_Node2, Net100_Node14, Net100_Pair36_41, Net25_Node5, Net25_Node4, Net100_Node24</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>DroNc_Human_Hippocampus</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>END</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Net100_Node27</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>DroNc_Human_Hippocampus</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Net100_Pair30_32</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>DroNc_Human_Hippocampus</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>exDG</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Net100_Pair2_15</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>GSE101601_Temporal_Cortex</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>htrc2</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Net100_Node52</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>PsychENCODE_DER-22</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Ex6a</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Net100_Pair5_21</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>PsychENCODE_DER-22</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Ex8</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Net100_Pair44_49</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ENTG1</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Net100_Pair24_36</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>HBINH8</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Net_Edge_ICA1</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>SCINH10</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Net_Edge_ICA1</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>SCINH2</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Net_Edge_ICA1</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>mousebrain</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>SCINH5</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Net100_Pair32_38</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>tabula_muris</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Brain_Non-Myeloid.brain_pericyte</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Net25_Node10, Net100_Node17, Net25_Node9, Net100_Node2, Net100_Node37, Net25_Node5, Net25_Node12, Net100_Node11, Net25_Node8, Net100_Node4, Net100_Node48, Net25_Node21, Net25_Node14, Net100_Node27, Net25_Node3, Net25_Node6, Net100_Node15, Net100_Node44, Net100_Node42, Net100_Node14, Net100_Node26, Net25_Node13, Net100_Node21, Net25_Node2, Net100_Node28, Net100_Node35, Net25_Node18, Net100_Node20, Net100_Node46, Net100_Node9, Net100_Node22, Net100_Node23, Net100_Node18</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>tabula_muris</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Heart.myofibroblast_cell</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Net25_Node12, Net25_Node10, Net100_Node32, Net25_Node9</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>tabula_muris</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Heart.smooth_muscle_cell</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Net100_Node17, Net100_Node15, Net100_Node48, Net25_Node18, Net25_Node12, Net100_Node23, Net100_Node18</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>tabula_muris</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Marrow.precursor_B_cell</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>rs-fMRI Network</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
         <is>
           <t>Net100_Pair10_36</t>
         </is>
